--- a/CADASTROS/cadastro.xlsx
+++ b/CADASTROS/cadastro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RJ 31.03.2024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RJ 31.12.2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,1316 @@
       <c r="G1" t="inlineStr">
         <is>
           <t>NÚMERO DO PROCESSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SIMONE PIRES MANHÃES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PROFESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1548 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/63465.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NINA VALENTE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRO-FESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1045 de 09/08/2024</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/29207.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WALDEMIR PALHARES MARINHO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (EDUCAÇÃO FÍSICA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1524 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/42543.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JOSÉ CARLOS ANDRADE NEVES</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (GEOGRAFIA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1507 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/48174.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IRLAMAR DE OLIVEIRA ALVES</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MERENDEIRA CATEGORIA ESPECIAL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 212 DE 28/02/2024</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO- 2023/54124 e TORNO SEM EFEITO a apostila lavrada em 11/04/2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cristina Schulz e Silva</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14/159.064-5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Resolução ‘P’ N.º 289 de 13/12/2024</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>processo n.º EOP-PRO-2024/49662.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SIMONE PIRES MANHÃES</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PROFESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1548 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/63465.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NINA VALENTE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRO-FESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1045 de 09/08/2024</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/29207.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WALDEMIR PALHARES MARINHO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (EDUCAÇÃO FÍSICA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1524 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/42543.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JOSÉ CARLOS ANDRADE NEVES</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (GEOGRAFIA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1507 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/48174.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IRLAMAR DE OLIVEIRA ALVES</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MERENDEIRA CATEGORIA ESPECIAL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 212 DE 28/02/2024</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO- 2023/54124 e TORNO SEM EFEITO a apostila lavrada em 11/04/2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cristina Schulz e Silva</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14/159.064-5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Resolução ‘P’ N.º 289 de 13/12/2024</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>processo n.º EOP-PRO-2024/49662.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MARIA VENINA GASPAR FERREIRA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PROFESSOR II - CLASSE C - NÍVEL 5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15/153.818-0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Por-taria E/SUBG/CRH “P” Nº 1197 de 07/11/2017</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>processo nº 07/006.493/2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KATIANE DE SOUSA GOMES NERI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TECNICO DE ENFERMAGEM 1ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15/294.936-0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 807 de 11 de JULHO de 2024</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/35512.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OLGA BENEDITO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TECNICO DE LABORATORIO ANALISES CLÍNICAS 2ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15/303.337-0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 1.076 de 30 de SETEMBRO de 2024</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/59079.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WANESSA ARAUJO SANTOS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TECNICO DE ENFERMAGEM 2ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15/303.275-2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 1.085 de 30 de SETEMBRO de 2024</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/59072.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EDUARDO FRANÇA TELLES</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TECNICO EM RADIOLOGIA 2ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15/303.537-5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 657 de 07 de JUNHO de 2024</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/28152.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JANAINA PUPE GUILHERMINO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AGENTE DE DOCUMENTAÇÃO MÉDICA CATEGORIA ESPECIAL “A”</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15/252.887-5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 315 de 27 de MARÇO de 2024</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS- PRO-2024/12487.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LUIZ FELIPE NOGUEIRA DE FARIA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PSICOLOGO CATEGORIA ESPECIAL “A”</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15/245.608-5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 345 de 01 de ABRIL de 2024</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/02884.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DELCIENE DA CONCEIÇÃO MOURA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TÉCNICO DE ENFERMAGEM 2ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15/294.927-9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 364 de 01 de ABRIL de 2024</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/13694.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NORMA SOARES DA CAMARA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TÉCNICO DE ENFERMAGEM 2ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15/294.600-2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 1.075 de 30 de SETEMBRO de 2024</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/59070.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MARCUS WELB TRINDADE MARQUES</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ENFERMEIRO 3ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15/279.522-7</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 749 de 28 de JUNHO de 2024</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/33508.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KASSIA REIS PEREIRA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ENFERMEIRO 5ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15/292.275-5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 1.062 de 30 de SETEMBRO de 2024</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/59068.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ROGÉRIO ROCHA DE ARAGÃO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AUXILIAR DE CONTROLE DE ENDEMIAS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15/275.148-5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 1.078 de 30 de SETEMBRO de 2024</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/59056.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SUELI ANDRADE PINTO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AUXILIAR DE ENFERMAGEM (ENQ. FORMAÇÃO) 2ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15/244.176-4</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 372 de 04 de ABRIL de 2024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS-PRO-2024/15253.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FABIANA FERREIRA SILVA MORALES</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AUXILIAR DE ENFERMAGEM (ENQ. FORMAÇÃO) 2ª CATEGORIA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15/244.837-1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PORTARIA ‘P’ S/SUBG/CGP Nº. 569 de 27 de MAIO de 2024</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PROCESSO Nº SMS- PRO-2024/25614.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SIMONE PIRES MANHÃES</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PROFESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1548 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/63465.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NINA VALENTE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PRO-FESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1045 de 09/08/2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/29207.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WALDEMIR PALHARES MARINHO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (EDUCAÇÃO FÍSICA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1524 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/42543.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>JOSÉ CARLOS ANDRADE NEVES</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (GEOGRAFIA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1507 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/48174.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>IRLAMAR DE OLIVEIRA ALVES</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MERENDEIRA CATEGORIA ESPECIAL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 212 DE 28/02/2024</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO- 2023/54124 e TORNO SEM EFEITO a apostila lavrada em 11/04/2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cristina Schulz e Silva</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14/159.064-5</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Resolução ‘P’ N.º 289 de 13/12/2024</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>processo n.º EOP-PRO-2024/49662.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SIMONE PIRES MANHÃES</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PROFESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1548 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/63465.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NINA VALENTE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PRO-FESSOR II - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1045 de 09/08/2024</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/29207.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WALDEMIR PALHARES MARINHO</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (EDUCAÇÃO FÍSICA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1524 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/42543.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JOSÉ CARLOS ANDRADE NEVES</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PROFESSOR DE ENSINO FUNDAMENTAL (GEOGRAFIA) - CLASSE C - NÍVEL 7</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 1507 de 29/11/2024</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO-2024/48174.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IRLAMAR DE OLIVEIRA ALVES</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MERENDEIRA CATEGORIA ESPECIAL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Portaria E/CTRH/CARH “P” Nº 212 DE 28/02/2024</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>processo nº SME-PRO- 2023/54124 e TORNO SEM EFEITO a apostila lavrada em 11/04/2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cristina Schulz e Silva</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>inativo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14/159.064-5</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SIM aposentado(a)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Resolução ‘P’ N.º 289 de 13/12/2024</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>processo n.º EOP-PRO-2024/49662.</t>
         </is>
       </c>
     </row>
